--- a/output/GAP_03804917000137.xlsx
+++ b/output/GAP_03804917000137.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>5.389328752834091</v>
+        <v>5.378006162837708</v>
       </c>
       <c r="C192">
-        <v>0.01051158368156435</v>
+        <v>0.008720846533542881</v>
       </c>
     </row>
   </sheetData>

--- a/output/GAP_03804917000137.xlsx
+++ b/output/GAP_03804917000137.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GAP MULTIPORTFOLIO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>-0.01203997442612348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.02027884567564198</v>
-      </c>
-      <c r="C3">
         <v>0.03271267993155136</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.01219525031272184</v>
-      </c>
-      <c r="C4">
         <v>-0.007922927538076219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.02645293025122286</v>
-      </c>
-      <c r="C5">
         <v>0.01408589887583056</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.05110877919304113</v>
-      </c>
-      <c r="C6">
         <v>0.02402043797155295</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.06825874077962002</v>
-      </c>
-      <c r="C7">
         <v>0.01631606730536994</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.07200728423269287</v>
-      </c>
-      <c r="C8">
         <v>0.003509022028068909</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1009883577361228</v>
-      </c>
-      <c r="C9">
         <v>0.02703439979344324</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1303675721684974</v>
-      </c>
-      <c r="C10">
         <v>0.02668440063506639</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1427284733933778</v>
-      </c>
-      <c r="C11">
         <v>0.01093529355337686</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.1689603136562119</v>
-      </c>
-      <c r="C12">
         <v>0.02295544468664334</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2005011028058439</v>
-      </c>
-      <c r="C13">
         <v>0.02698191613621193</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2457874980387083</v>
-      </c>
-      <c r="C14">
         <v>0.03772291014728757</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.2905814181958004</v>
-      </c>
-      <c r="C15">
         <v>0.0359563089432291</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.2904433549379846</v>
-      </c>
-      <c r="C16">
         <v>-0.0001069775652038363</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3239776550606563</v>
-      </c>
-      <c r="C17">
         <v>0.02598665024260849</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3271134276722472</v>
-      </c>
-      <c r="C18">
         <v>0.002368448288839975</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3394973121562213</v>
-      </c>
-      <c r="C19">
         <v>0.009331443888481727</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.3736325209221205</v>
-      </c>
-      <c r="C20">
         <v>0.02548359631341923</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4108373215233769</v>
-      </c>
-      <c r="C21">
         <v>0.02708497362619289</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.4209755545165832</v>
-      </c>
-      <c r="C22">
         <v>0.007185968813370636</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.4497155310844576</v>
-      </c>
-      <c r="C23">
         <v>0.02022552497579855</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.4744494235256673</v>
-      </c>
-      <c r="C24">
         <v>0.01706120401614752</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.4990761841186466</v>
-      </c>
-      <c r="C25">
         <v>0.01670234339682697</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.528707309734114</v>
-      </c>
-      <c r="C26">
         <v>0.01976625733193704</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.541849708733988</v>
-      </c>
-      <c r="C27">
         <v>0.008597066891869565</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.5758890691182792</v>
-      </c>
-      <c r="C28">
         <v>0.02207696391643843</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.5958171650147526</v>
-      </c>
-      <c r="C29">
         <v>0.01264562099388344</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.6374019435676517</v>
-      </c>
-      <c r="C30">
         <v>0.02605861088887007</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.6688530786885341</v>
-      </c>
-      <c r="C31">
         <v>0.01920795028028066</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.6953995912551911</v>
-      </c>
-      <c r="C32">
         <v>0.01590703993398779</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.6668476280496631</v>
-      </c>
-      <c r="C33">
         <v>-0.01684084587067147</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.6998708116332686</v>
-      </c>
-      <c r="C34">
         <v>0.01981175905217269</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.735529001529917</v>
-      </c>
-      <c r="C35">
         <v>0.0209769999300049</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.7307161365021859</v>
-      </c>
-      <c r="C36">
         <v>-0.002773140076304359</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.7395038568671659</v>
-      </c>
-      <c r="C37">
         <v>0.005077505305254748</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.7476895779547017</v>
-      </c>
-      <c r="C38">
         <v>0.004705779211250594</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.7759107701608874</v>
-      </c>
-      <c r="C39">
         <v>0.01614771442375518</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.7544800325219758</v>
-      </c>
-      <c r="C40">
         <v>-0.0120674630724662</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.7919199945460387</v>
-      </c>
-      <c r="C41">
         <v>0.02133963415374107</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.8171526992339013</v>
-      </c>
-      <c r="C42">
         <v>0.0140813790597023</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.8321246189071891</v>
-      </c>
-      <c r="C43">
         <v>0.008239219345517856</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.8364018689815527</v>
-      </c>
-      <c r="C44">
         <v>0.002334584683936436</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.8202689865892465</v>
-      </c>
-      <c r="C45">
         <v>-0.008785050083429335</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.8052710812402464</v>
-      </c>
-      <c r="C46">
         <v>-0.008239389595437019</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.8165754938616772</v>
-      </c>
-      <c r="C47">
         <v>0.006261892044304274</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.8357203964904381</v>
-      </c>
-      <c r="C48">
         <v>0.01053900743098901</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.8807082570872102</v>
-      </c>
-      <c r="C49">
         <v>0.02450692419323808</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.9513563454919076</v>
-      </c>
-      <c r="C50">
         <v>0.03756461861560356</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.9736271788161126</v>
-      </c>
-      <c r="C51">
         <v>0.01141300171834625</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>1.007361334442169</v>
-      </c>
-      <c r="C52">
         <v>0.01709246608890513</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>1.013207353184574</v>
-      </c>
-      <c r="C53">
         <v>0.002912290200124623</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>1.067754955541093</v>
-      </c>
-      <c r="C54">
         <v>0.02709487538391619</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>1.088860975216277</v>
-      </c>
-      <c r="C55">
         <v>0.01020721513379752</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.110862879744924</v>
-      </c>
-      <c r="C56">
         <v>0.01053296738734311</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.116770296353177</v>
-      </c>
-      <c r="C57">
         <v>0.002798579038429727</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.164697331141533</v>
-      </c>
-      <c r="C58">
         <v>0.02264158509353886</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.190010678616067</v>
-      </c>
-      <c r="C59">
         <v>0.01169371214643911</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.202821628404725</v>
-      </c>
-      <c r="C60">
         <v>0.005849720238238154</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.217517760731159</v>
-      </c>
-      <c r="C61">
         <v>0.006671503555681468</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.220207484722335</v>
-      </c>
-      <c r="C62">
         <v>0.001212943606949679</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.230003331440534</v>
-      </c>
-      <c r="C63">
         <v>0.00441213120197359</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.236591566706453</v>
-      </c>
-      <c r="C64">
         <v>0.002954361176520592</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.248581168913477</v>
-      </c>
-      <c r="C65">
         <v>0.005360657880275843</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.240952176333275</v>
-      </c>
-      <c r="C66">
         <v>-0.003392802841930886</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.256879718952446</v>
-      </c>
-      <c r="C67">
         <v>0.00710748885557777</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.269181812135715</v>
-      </c>
-      <c r="C68">
         <v>0.005450929918843439</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.294140653106412</v>
-      </c>
-      <c r="C69">
         <v>0.01099904857214007</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.31495147928732</v>
-      </c>
-      <c r="C70">
         <v>0.009071294801706653</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.339139987103435</v>
-      </c>
-      <c r="C71">
         <v>0.0104488184882221</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.349901121466</v>
-      </c>
-      <c r="C72">
         <v>0.004600466163588113</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.383981268220978</v>
-      </c>
-      <c r="C73">
         <v>0.0145028003279204</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.397194410717979</v>
-      </c>
-      <c r="C74">
         <v>0.005542469092830293</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.419842122917618</v>
-      </c>
-      <c r="C75">
         <v>0.009447590941468853</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.450952801296494</v>
-      </c>
-      <c r="C76">
         <v>0.01285649096039587</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.474547158313195</v>
-      </c>
-      <c r="C77">
         <v>0.009626606030202156</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.493472738679618</v>
-      </c>
-      <c r="C78">
         <v>0.00764809848252157</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.51912510352662</v>
-      </c>
-      <c r="C79">
         <v>0.01028780641916494</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.539853562673053</v>
-      </c>
-      <c r="C80">
         <v>0.008228435784080279</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.595587456445132</v>
-      </c>
-      <c r="C81">
         <v>0.021943742974466</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.611446495391886</v>
-      </c>
-      <c r="C82">
         <v>0.006109999841220404</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.637132223816931</v>
-      </c>
-      <c r="C83">
         <v>0.009835824119073022</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.665268784726362</v>
-      </c>
-      <c r="C84">
         <v>0.01066937814316615</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.641818021742908</v>
-      </c>
-      <c r="C85">
         <v>-0.008798648420692556</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.669627737573922</v>
-      </c>
-      <c r="C86">
         <v>0.01052673409074045</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.699211022611595</v>
-      </c>
-      <c r="C87">
         <v>0.011081427054904</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.708964232756721</v>
-      </c>
-      <c r="C88">
         <v>0.003613355926388229</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.753289948370433</v>
-      </c>
-      <c r="C89">
         <v>0.01636260644482723</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.803927252566471</v>
-      </c>
-      <c r="C90">
         <v>0.01839156251088214</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.836575407273723</v>
-      </c>
-      <c r="C91">
         <v>0.01164372387955792</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>1.864648100381694</v>
-      </c>
-      <c r="C92">
         <v>0.009896684937754641</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>1.899642347930684</v>
-      </c>
-      <c r="C93">
         <v>0.01221589749342256</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>1.936957657910345</v>
-      </c>
-      <c r="C94">
         <v>0.01286893537276801</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>1.981181531572451</v>
-      </c>
-      <c r="C95">
         <v>0.01505771577707082</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>2.015291213805061</v>
-      </c>
-      <c r="C96">
         <v>0.01144166561860405</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>2.070428077975807</v>
-      </c>
-      <c r="C97">
         <v>0.01828575094780582</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>2.128075667795286</v>
-      </c>
-      <c r="C98">
         <v>0.01877509857110327</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>2.140040733007623</v>
-      </c>
-      <c r="C99">
         <v>0.003825056195258192</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>2.13041225466261</v>
-      </c>
-      <c r="C100">
         <v>-0.003066354599734811</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>2.181112278186736</v>
-      </c>
-      <c r="C101">
         <v>0.01619595740101332</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2.177253052192656</v>
-      </c>
-      <c r="C102">
         <v>-0.001213168746209581</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>2.210152419795428</v>
-      </c>
-      <c r="C103">
         <v>0.01035465764367349</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>2.211541075892041</v>
-      </c>
-      <c r="C104">
         <v>0.000432582605128129</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>2.22984669920042</v>
-      </c>
-      <c r="C105">
         <v>0.005699949923042791</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>2.220409284703675</v>
-      </c>
-      <c r="C106">
         <v>-0.002921938833530979</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>2.247916000757943</v>
-      </c>
-      <c r="C107">
         <v>0.008541372733248398</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>2.269439424417929</v>
-      </c>
-      <c r="C108">
         <v>0.006626841228333458</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>2.30706523663767</v>
-      </c>
-      <c r="C109">
         <v>0.01150833746566193</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>2.328024375779472</v>
-      </c>
-      <c r="C110">
         <v>0.00633768542259272</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>2.357672820235293</v>
-      </c>
-      <c r="C111">
         <v>0.008908722145064552</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>2.334734371867628</v>
-      </c>
-      <c r="C112">
         <v>-0.00683165084740367</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>2.345996111098834</v>
-      </c>
-      <c r="C113">
         <v>0.00337710233421018</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>2.396701935006408</v>
-      </c>
-      <c r="C114">
         <v>0.01515417897210969</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>2.429231931287163</v>
-      </c>
-      <c r="C115">
         <v>0.009576935775700735</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>2.462121433423378</v>
-      </c>
-      <c r="C116">
         <v>0.009590923797291984</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>2.488320470848928</v>
-      </c>
-      <c r="C117">
         <v>0.00756733636568141</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>2.434023374140038</v>
-      </c>
-      <c r="C118">
         <v>-0.01556539806552693</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>2.441844296059922</v>
-      </c>
-      <c r="C119">
         <v>0.002277480688914091</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>2.510893554890862</v>
-      </c>
-      <c r="C120">
         <v>0.02006170322986001</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>2.485361739319324</v>
-      </c>
-      <c r="C121">
         <v>-0.00727217022457749</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>2.512870520046983</v>
-      </c>
-      <c r="C122">
         <v>0.007892661590136907</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.53638795131974</v>
-      </c>
-      <c r="C123">
         <v>0.006694647906477114</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.569577132861526</v>
-      </c>
-      <c r="C124">
         <v>0.009385051074331185</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>2.509668716411817</v>
-      </c>
-      <c r="C125">
         <v>-0.01678305698963367</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>2.586342991470668</v>
-      </c>
-      <c r="C126">
         <v>0.02184658475038059</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>2.554096746992527</v>
-      </c>
-      <c r="C127">
         <v>-0.00899140002917509</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>2.603615023779364</v>
-      </c>
-      <c r="C128">
         <v>0.01393273180555354</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>2.584918589685574</v>
-      </c>
-      <c r="C129">
         <v>-0.005188244018969002</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>2.613613692753722</v>
-      </c>
-      <c r="C130">
         <v>0.008004394618809085</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>2.639269968798483</v>
-      </c>
-      <c r="C131">
         <v>0.007099894517282879</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>2.668129493766047</v>
-      </c>
-      <c r="C132">
         <v>0.00793003135656134</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>2.698121617954421</v>
-      </c>
-      <c r="C133">
         <v>0.008176408231864718</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>2.770182052197541</v>
-      </c>
-      <c r="C134">
         <v>0.01948568535260309</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>2.797937867609888</v>
-      </c>
-      <c r="C135">
         <v>0.007361929749829521</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>2.836967552658737</v>
-      </c>
-      <c r="C136">
         <v>0.01027654648637299</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>2.951623242069356</v>
-      </c>
-      <c r="C137">
         <v>0.02988185014261369</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>3.008079197347032</v>
-      </c>
-      <c r="C138">
         <v>0.01428677579295545</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>3.097352912435885</v>
-      </c>
-      <c r="C139">
         <v>0.02227344089107408</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>3.13727206154876</v>
-      </c>
-      <c r="C140">
         <v>0.009742668001996302</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>3.185713576988058</v>
-      </c>
-      <c r="C141">
         <v>0.01170856417432797</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>3.267641361436075</v>
-      </c>
-      <c r="C142">
         <v>0.01957319413789671</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>3.286539503431359</v>
-      </c>
-      <c r="C143">
         <v>0.004428240424805718</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>3.233892631669913</v>
-      </c>
-      <c r="C144">
         <v>-0.01228190518699357</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>3.303293376319961</v>
-      </c>
-      <c r="C145">
         <v>0.01639171105354076</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>3.419761280553146</v>
-      </c>
-      <c r="C146">
         <v>0.02706483013082073</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>3.516110240155785</v>
-      </c>
-      <c r="C147">
         <v>0.02179958452203579</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>3.594486686931772</v>
-      </c>
-      <c r="C148">
         <v>0.01735485685869409</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>3.643696342565184</v>
-      </c>
-      <c r="C149">
         <v>0.01071058836091088</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>3.531436256387223</v>
-      </c>
-      <c r="C150">
         <v>-0.02417472588570424</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>3.564498509198385</v>
-      </c>
-      <c r="C151">
         <v>0.007296197262967041</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>3.564766645412321</v>
-      </c>
-      <c r="C152">
         <v>5.87438496024717e-05</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>3.621070853139736</v>
-      </c>
-      <c r="C153">
         <v>0.01233452049164496</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>3.732877741623166</v>
-      </c>
-      <c r="C154">
         <v>0.02419501713709149</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>3.766869662378068</v>
-      </c>
-      <c r="C155">
         <v>0.007182082996981087</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>3.804816912001679</v>
-      </c>
-      <c r="C156">
         <v>0.007960622444348697</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>3.832363491129331</v>
-      </c>
-      <c r="C157">
         <v>0.005733117334574045</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>3.906050647635835</v>
-      </c>
-      <c r="C158">
         <v>0.0152486783417205</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>3.947509695102345</v>
-      </c>
-      <c r="C159">
         <v>0.008450595080278678</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>3.956043451569022</v>
-      </c>
-      <c r="C160">
         <v>0.001724858967962373</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>4.01057756295272</v>
-      </c>
-      <c r="C161">
         <v>0.01100355796243724</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>3.972319033992049</v>
-      </c>
-      <c r="C162">
         <v>-0.007635552684294722</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>4.030471065903543</v>
-      </c>
-      <c r="C163">
         <v>0.01169515300887825</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>4.151563351134001</v>
-      </c>
-      <c r="C164">
         <v>0.02407175861744237</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>4.150246636467076</v>
-      </c>
-      <c r="C165">
         <v>-0.0002555951615417218</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>4.228796633955476</v>
-      </c>
-      <c r="C166">
         <v>0.0152516962842546</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>4.327394502313387</v>
-      </c>
-      <c r="C167">
         <v>0.01885670360893821</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>4.16135108076051</v>
-      </c>
-      <c r="C168">
         <v>-0.03116784790027727</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>4.123889158594976</v>
-      </c>
-      <c r="C169">
         <v>-0.007258161977234612</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>4.290351446298519</v>
-      </c>
-      <c r="C170">
         <v>0.03248748802934487</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>4.228530496813123</v>
-      </c>
-      <c r="C171">
         <v>-0.01168560352047121</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>4.289381291888636</v>
-      </c>
-      <c r="C172">
         <v>0.01163822131526304</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>4.263743711797295</v>
-      </c>
-      <c r="C173">
         <v>-0.004846990352285196</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>4.359162817326268</v>
-      </c>
-      <c r="C174">
         <v>0.01812761235223448</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>4.566755807603173</v>
-      </c>
-      <c r="C175">
         <v>0.03873608571953713</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>4.625437321665622</v>
-      </c>
-      <c r="C176">
         <v>0.01054142054916452</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>4.650888268734728</v>
-      </c>
-      <c r="C177">
         <v>0.004524261068750146</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>4.785760563411606</v>
-      </c>
-      <c r="C178">
         <v>0.02386745025965209</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>4.854440607766774</v>
-      </c>
-      <c r="C179">
         <v>0.01187053000248439</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>4.755443366805694</v>
-      </c>
-      <c r="C180">
         <v>-0.01690976945427469</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>4.864013390590782</v>
-      </c>
-      <c r="C181">
         <v>0.01886388534569927</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>4.818031791292409</v>
-      </c>
-      <c r="C182">
         <v>-0.007841318945852604</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>4.67889626785842</v>
-      </c>
-      <c r="C183">
         <v>-0.02391453474733962</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>4.716730993735922</v>
-      </c>
-      <c r="C184">
         <v>0.006662337907392457</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>4.962849341302445</v>
-      </c>
-      <c r="C185">
         <v>0.04305228772111303</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>5.275370012888164</v>
-      </c>
-      <c r="C186">
         <v>0.05241129763601515</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>5.353165100899402</v>
-      </c>
-      <c r="C187">
         <v>0.01239689258983367</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>5.447441063126217</v>
-      </c>
-      <c r="C188">
         <v>0.01483921175186653</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>5.382322186737427</v>
-      </c>
-      <c r="C189">
         <v>-0.01009995682802178</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>5.373278183056368</v>
-      </c>
-      <c r="C190">
         <v>-0.001417039663063724</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>5.322865423824291</v>
-      </c>
-      <c r="C191">
         <v>-0.007910020210023405</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>5.378006162837708</v>
-      </c>
-      <c r="C192">
-        <v>0.008720846533542881</v>
+        <v>0.007141612060671987</v>
       </c>
     </row>
   </sheetData>
